--- a/tests/Gauges/tLists7_horizontal_images.xlsx
+++ b/tests/Gauges/tLists7_horizontal_images.xlsx
@@ -134,13 +134,11 @@
       <x:sz val="8"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
@@ -201,7 +199,6 @@
       <x:sz val="14"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
